--- a/assignment module2.xlsx
+++ b/assignment module2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="15315" windowHeight="7485" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="15315" windowHeight="7485" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Hlr for instagram" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,25 @@
     <sheet name="test-case for facebook" sheetId="4" r:id="rId4"/>
     <sheet name="HLR for whatsup-web" sheetId="5" r:id="rId5"/>
     <sheet name="test case for whatsup -web" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="Test-Scenario for pen" sheetId="7" r:id="rId7"/>
+    <sheet name="Testscenario for pen stand" sheetId="8" r:id="rId8"/>
+    <sheet name="Scenario for whatsupp chat" sheetId="9" r:id="rId9"/>
+    <sheet name="Scenario on door" sheetId="10" r:id="rId10"/>
+    <sheet name="Scenario on ATM" sheetId="11" r:id="rId11"/>
+    <sheet name="Scenario on Vending machine" sheetId="12" r:id="rId12"/>
+    <sheet name="Microwave machine S" sheetId="13" r:id="rId13"/>
+    <sheet name="Smart chair" sheetId="14" r:id="rId14"/>
+    <sheet name="Test Scenario for gmail msg R" sheetId="15" r:id="rId15"/>
+    <sheet name="Flipcart" sheetId="16" r:id="rId16"/>
+    <sheet name="Nokia8sicocco on flipcart" sheetId="17" r:id="rId17"/>
+    <sheet name="Wrist watch" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="329">
   <si>
     <t>Funcionality Id</t>
   </si>
@@ -488,13 +499,540 @@
   </si>
   <si>
     <t>URL- 1) https://web.whatsapp.com/https://faq.whatsapp.com/1317564962315842/?cms_platform=web&amp;lang=en2)press enter key 3)clickon phone and whtasupp logo 4)Click on setting menu 5) click on Tap link menu /button 6)click on scan r code 7) Need help button8)Click on login with phone number button9)click login with select country button10)click on phon no button 11) Click on next button 12 ) Click on Qr  code button 13) Click on log out button</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>Test Summary</t>
+  </si>
+  <si>
+    <t>Check pen type</t>
+  </si>
+  <si>
+    <t>Check pen ink flow</t>
+  </si>
+  <si>
+    <t>Check pen material</t>
+  </si>
+  <si>
+    <t>Check cap attachment</t>
+  </si>
+  <si>
+    <t>Check pen grip</t>
+  </si>
+  <si>
+    <t>Test if the pen is comfortable to hold for long writing sessions.</t>
+  </si>
+  <si>
+    <t>Verify if the cap fits securely to avoid ink drying.</t>
+  </si>
+  <si>
+    <t>Test the build quality and material durability.</t>
+  </si>
+  <si>
+    <t>Verify if the pen is ballpoint, gel, or ink based.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Pick a pen 2)Write on paper 3)Identify ink type </t>
+  </si>
+  <si>
+    <t>1) Write a paragraph 2)Observe flow and consistency</t>
+  </si>
+  <si>
+    <t>1) Drop from height
+2) Apply moderate pressure
+3) Inspect body</t>
+  </si>
+  <si>
+    <t>1) Place cap 2) Shake pen 3) Check if cap staya in place</t>
+  </si>
+  <si>
+    <t>1) Write for 10 minutes  2) Observe any discomfort or slipping</t>
+  </si>
+  <si>
+    <t>Test -Scenario for pen</t>
+  </si>
+  <si>
+    <t>Check pen stand capacity</t>
+  </si>
+  <si>
+    <t>Check material durability</t>
+  </si>
+  <si>
+    <t>Check anti-slip base</t>
+  </si>
+  <si>
+    <t>Check aesthetics/design</t>
+  </si>
+  <si>
+    <t>Check pen stand weight</t>
+  </si>
+  <si>
+    <t>Verify how many pens the stand can hold without toppling.</t>
+  </si>
+  <si>
+    <t>Test if the stand is made of strong, long-lasting material.</t>
+  </si>
+  <si>
+    <t>Ensure the pen stand doesn’t slide on smooth surfaces.</t>
+  </si>
+  <si>
+    <t>Evaluate the design and appearance of the pen stand.</t>
+  </si>
+  <si>
+    <t>Ensure the stand is not too light (unstable) or too heavy (inconvenient).</t>
+  </si>
+  <si>
+    <t>1) Insert pens one by one 2) Observe stability and max capacity</t>
+  </si>
+  <si>
+    <t>1) Lightly drop stand from table height
+2) Inspect for cracks/damage</t>
+  </si>
+  <si>
+    <t>1) Place on smooth table2) Gently push3) Observe movement</t>
+  </si>
+  <si>
+    <t>1) Inspect visually 2) Compare with product image (if applicable)</t>
+  </si>
+  <si>
+    <t>1) Weigh the stand  2) check ease of movememnt</t>
+  </si>
+  <si>
+    <t>Test Scenario -pen stand</t>
+  </si>
+  <si>
+    <t>Check website Url</t>
+  </si>
+  <si>
+    <t>After clicking this url it lodede home page successfully.</t>
+  </si>
+  <si>
+    <t>Url-http://topsint.in:8080/prosurvey/home.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Click on Sign-in menu</t>
+  </si>
+  <si>
+    <t>Clicked on it, and the sign-in page popped up just fine.</t>
+  </si>
+  <si>
+    <t>Url-http://topsint.in:8080/prosurvey/home.jsp 2) click on Sign-in menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Click on Dashboard menu</t>
+  </si>
+  <si>
+    <t>After click on opens correctly and refreshes as expected when clicked.</t>
+  </si>
+  <si>
+    <t>Url-http://topsint.in:8080/prosurvey/home.jsp 2) click on Sign-in menu 3)  Click on Dashboard menu</t>
+  </si>
+  <si>
+    <t>Click on Start From Scratch button –</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After clicking on opens the small setup window as it should.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Url-http://topsint.in:8080/prosurvey/home.jsp 2) click on Sign-in menu 3)  Click on Dashboard menu 4)Click on Start From Scratch button </t>
+  </si>
+  <si>
+    <t>[QA Team - Project Survey]
+Ravi:
+Hey team 👋,
+Just a quick update on today's test run for the project-based survey platform:</t>
+  </si>
+  <si>
+    <t>when authorized user taps RFID card, door should unlock and open automatically</t>
+  </si>
+  <si>
+    <t>1) Power on smart door system 2) Present valid RFID card to reader 3) Observe if the door unlocks within 2 seconds and opens</t>
+  </si>
+  <si>
+    <t>Test Id</t>
+  </si>
+  <si>
+    <t>Functionality Id</t>
+  </si>
+  <si>
+    <t>check door access (invalid RFID)</t>
+  </si>
+  <si>
+    <t>When an unauthorized user presents an invalid RFID, the door should stay locked</t>
+  </si>
+  <si>
+    <t>1) Power on smart door system 2) Present an invalid RFID card 3)Door should remain locked, access denied message shown</t>
+  </si>
+  <si>
+    <t>check smart door unlock(Valid RFID)</t>
+  </si>
+  <si>
+    <t>check cash withdrawal</t>
+  </si>
+  <si>
+    <t>Verify that user can successfully withdraw cash using valid card and correct PIN</t>
+  </si>
+  <si>
+    <t>1) Insert valid ATM card  2)Enter correct PIN 3)Select “Withdraw” 4)Enter valid amount 5)click on confirm 6)6)Collect cash and receipt</t>
+  </si>
+  <si>
+    <t>check incorrect PIN attempt</t>
+  </si>
+  <si>
+    <t>Verify that ATM denies access when incorrect PIN is entered more than allowed attempts</t>
+  </si>
+  <si>
+    <t>1)Insert valid Atm card 2)Enter wrong PIN 3 times 3) Observe the system response</t>
+  </si>
+  <si>
+    <t>As per expected result.</t>
+  </si>
+  <si>
+    <t>Scenario on  ATM</t>
+  </si>
+  <si>
+    <t>check coffee dispensing</t>
+  </si>
+  <si>
+    <t>Verify that the machine dispenses coffee when valid selection and payment are made</t>
+  </si>
+  <si>
+    <t>Beverage: Coffee, Amount: ₹10</t>
+  </si>
+  <si>
+    <t>1) Power on machine 2) Select “Coffee” 3)Insert required amount  4)Press start 5)Collect coffee from dispenser</t>
+  </si>
+  <si>
+    <t>Verify that coffee is not dispensed when inserted amount is less than required</t>
+  </si>
+  <si>
+    <t>check insufficient payment case</t>
+  </si>
+  <si>
+    <t>1) Power on machine 2) Select “Coffee” 3)Insert less than required amount e.g   (5 rs) 4)Press start 5)Check for any output</t>
+  </si>
+  <si>
+    <t>Beverage: Coffee, Amount: ₹5</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>Scenario for Coffee vending machine</t>
+  </si>
+  <si>
+    <t>check heating functionality</t>
+  </si>
+  <si>
+    <t>Verify that the microwave heats food properly when time and power are set correctly</t>
+  </si>
+  <si>
+    <t>1) Open microwave door 2) Place food inside 3) Close door 4) Set timer (e.g. 2 mins) 5) Press start 6) Wait and check food</t>
+  </si>
+  <si>
+    <t>Time: 2 mins, Power: High</t>
+  </si>
+  <si>
+    <t>As  per expected result</t>
+  </si>
+  <si>
+    <t>check start with open door</t>
+  </si>
+  <si>
+    <t>Verify that the microwave does not start if the door is open</t>
+  </si>
+  <si>
+    <t>1) Keep microwave door open 2)Set timer 3)Press start 4)Observe system behavior</t>
+  </si>
+  <si>
+    <t>Time: 1 mins, Power: High</t>
+  </si>
+  <si>
+    <t>Scenario on MICROAVE  MACHINE</t>
+  </si>
+  <si>
+    <t>check height adjustment</t>
+  </si>
+  <si>
+    <t>Verify the chair height adjusts correctly when the user presses the lever upward</t>
+  </si>
+  <si>
+    <t>1) Sit on chair 2)Press height adjustment lever upwards 3)Observe if the seat rises smoothly</t>
+  </si>
+  <si>
+    <t>Action: Press Lever Up</t>
+  </si>
+  <si>
+    <t>Action: Press Without Sitting</t>
+  </si>
+  <si>
+    <t>check height adjustment failure</t>
+  </si>
+  <si>
+    <t>Verify that height does not adjust when the lever  is pressed without applying body weight</t>
+  </si>
+  <si>
+    <t>1) Stand beside chair 2) Press height lever 3)Observe that the seat does not move</t>
+  </si>
+  <si>
+    <t>Scenario on Smart chair</t>
+  </si>
+  <si>
+    <t>SR.No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST SCENARIO </t>
+  </si>
+  <si>
+    <t>TEST SCENARIO NEGATIVE</t>
+  </si>
+  <si>
+    <t>POSITIVE</t>
+  </si>
+  <si>
+    <t>verify Gmail receiving mail from known sender</t>
+  </si>
+  <si>
+    <t>verify Gmail receiving mail with attachment</t>
+  </si>
+  <si>
+    <t>verify Gmail receiving mail when storage is full</t>
+  </si>
+  <si>
+    <t>verify Gmail receiving mail with special characters</t>
+  </si>
+  <si>
+    <t>verify Gmail receiving mail with suspicious content</t>
+  </si>
+  <si>
+    <t>verify that valid email from known sender is received in inbox with correct subject, body content and timestamp</t>
+  </si>
+  <si>
+    <t>verify that email with valid attachment is received and attachment can be downloaded and opened</t>
+  </si>
+  <si>
+    <t>verify that Gmail notifies user when storage is almost full but still allows receiving small emails</t>
+  </si>
+  <si>
+    <t>verify that email with special characters in subject and body is displayed correctly in inbox</t>
+  </si>
+  <si>
+    <t>verify that Gmail flags suspicious content and shows warning before opening the message or attachment</t>
+  </si>
+  <si>
+    <t>verify that Gmail moves email with malicious links or attachments to spam or blocks access with warning</t>
+  </si>
+  <si>
+    <t>verify that malformed emails with invalid encoding are either rejected or displayed with error symbols</t>
+  </si>
+  <si>
+    <t>verify that email from blacklisted sender is not received in inbox and is filtered into spam folder</t>
+  </si>
+  <si>
+    <t>verify that email with corrupted attachment is received but shows error while opening the file</t>
+  </si>
+  <si>
+    <t>verify that Gmail does not receive new emails and sender receives bounce message when storage is full</t>
+  </si>
+  <si>
+    <t>Test Scenario for Gmail receiving mail</t>
+  </si>
+  <si>
+    <t>verify product search functionality</t>
+  </si>
+  <si>
+    <t>verify add to cart functionality</t>
+  </si>
+  <si>
+    <t>verify product selection and details page</t>
+  </si>
+  <si>
+    <t>verify place order functionality</t>
+  </si>
+  <si>
+    <t>verify order confirmation</t>
+  </si>
+  <si>
+    <t>verify that user can search for a product using name or keyword and results are displayed accurately</t>
+  </si>
+  <si>
+    <t>verify that clicking on a product opens the correct product details page with image, price, and specs</t>
+  </si>
+  <si>
+    <t>verify that selected product is successfully added to the cart</t>
+  </si>
+  <si>
+    <t>verify that user can proceed to checkout and place an order with valid address and payment</t>
+  </si>
+  <si>
+    <t>verify that user receives confirmation message/email after successful order placement</t>
+  </si>
+  <si>
+    <t>verify that irrelevant results are shown when wrong spelling or invalid keyword is used</t>
+  </si>
+  <si>
+    <t>verify that wrong product details or price is shown on clicking the product</t>
+  </si>
+  <si>
+    <t>verify that error is shown when trying to add out-of-stock product to cart</t>
+  </si>
+  <si>
+    <t>verify that order cannot be placed with incomplete address or failed payment</t>
+  </si>
+  <si>
+    <t>verify that order is placed but confirmation message/email is not received</t>
+  </si>
+  <si>
+    <t>test scenario for buy product on flipcart</t>
+  </si>
+  <si>
+    <t>Scenario on Buying Nokia 8 Sirocco on Flipkart</t>
+  </si>
+  <si>
+    <t>verify search functionality for Nokia 8 Sirocco</t>
+  </si>
+  <si>
+    <t>verify that user can search “Nokia 8 Sirocco Black 128GB 6GB RAM” and gets accurate results</t>
+  </si>
+  <si>
+    <t>verify that no matching results are shown when product is discontinued or search has typo</t>
+  </si>
+  <si>
+    <t>verify product details for Nokia 8 Sirocco</t>
+  </si>
+  <si>
+    <t>verify that product page shows correct brand, color, storage, RAM, reviews, price, and delivery details</t>
+  </si>
+  <si>
+    <t>verify that product page shows incorrect specifications (e.g., wrong RAM or storage info)</t>
+  </si>
+  <si>
+    <t>verify add to cart functionality for Nokia 8 Sirocco</t>
+  </si>
+  <si>
+    <t>verify that user can add the selected phone to cart successfully</t>
+  </si>
+  <si>
+    <t>verify that add to cart fails if product is out of stock or seller is unavailable</t>
+  </si>
+  <si>
+    <t>verify placing order for Nokia 8 Sirocco</t>
+  </si>
+  <si>
+    <t>verify that user can place order with valid delivery address and successful payment</t>
+  </si>
+  <si>
+    <t>verify order confirmation and tracking</t>
+  </si>
+  <si>
+    <t>verify that user gets order confirmation with tracking ID and estimated delivery</t>
+  </si>
+  <si>
+    <t>verify that confirmation email/SMS is not received or tracking info is missing</t>
+  </si>
+  <si>
+    <t>Verify that the wristwatch displays</t>
+  </si>
+  <si>
+    <t>Verify that the wristwatch displays the correct time as per the set time zone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Check what happens if the battery is completely drained; ensure the watch can be restarted properly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the time formats </t>
+  </si>
+  <si>
+    <t>Verify that the wristwatch supports multiple time formats (12-hour and 24-hour format).</t>
+  </si>
+  <si>
+    <t>Verify that the wrist sizes.</t>
+  </si>
+  <si>
+    <t>Verify thatwater-resistant up</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the watch’s strap is adjustable and comfortable for different wrist sizes.</t>
+  </si>
+  <si>
+    <t>Verify that the watch is water-resistant up to the specified depth.</t>
+  </si>
+  <si>
+    <t>Verify that the alarm function rings at the set time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the battery life is consistent with the manufacturer’s specifications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the smartwatch connects properly to the companion mobile application.</t>
+  </si>
+  <si>
+    <t>Verify that the wristwatch’s stopwatch function measures time accurately.</t>
+  </si>
+  <si>
+    <t>Verify that the watch’s luminous display or backlight is visible in the dark.</t>
+  </si>
+  <si>
+    <t>Verify that the material of the watch is durable and does not cause skin irritation.</t>
+  </si>
+  <si>
+    <t>1. Verify the watch's response if water resistance is exceeded (e.g., submerged beyond its rated depth).</t>
+  </si>
+  <si>
+    <t>1. Verify if the watch stops working when exposed to extreme temperatures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the reaction if the watch is dropped from a certain height.
+</t>
+  </si>
+  <si>
+    <t>1. Verify what happens if multiple alarms are set for the same time.</t>
+  </si>
+  <si>
+    <t>Verify if the strap mechanism fails or breaks under excessive pressure.</t>
+  </si>
+  <si>
+    <t>1. Check if incorrect time zone settings cause synchronization issues.</t>
+  </si>
+  <si>
+    <t>Verify if the digital display flickers or fails when the battery is low.</t>
+  </si>
+  <si>
+    <t>Test whether the watch continues to function properly if exposed to high magnetic fields.</t>
+  </si>
+  <si>
+    <t>Verify if the smartwatch disconnects unexpectedly from the mobile application.</t>
+  </si>
+  <si>
+    <t>Verify that the alarm function</t>
+  </si>
+  <si>
+    <t>Verify that the battery</t>
+  </si>
+  <si>
+    <t>Verify that the smartwatch connects</t>
+  </si>
+  <si>
+    <t>Verify that the wristwatch’s stopwatch function</t>
+  </si>
+  <si>
+    <t>Verify that the watch’s luminous display</t>
+  </si>
+  <si>
+    <t>Verify that the material of the watch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +1089,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -613,7 +1158,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -644,6 +1189,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -673,6 +1236,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -971,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -983,16 +1559,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -1006,16 +1582,16 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
@@ -1084,13 +1660,13 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
@@ -1104,14 +1680,14 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
@@ -1125,13 +1701,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
@@ -1195,12 +1771,1125 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCellId="1" sqref="A1:XFD1 A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30">
+      <c r="A1" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" ht="30" customHeight="1">
+      <c r="A2" s="33">
+        <v>50</v>
+      </c>
+      <c r="B2" s="33">
+        <v>300</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" customHeight="1">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+    </row>
+    <row r="6" spans="1:14" ht="75" customHeight="1">
+      <c r="A6">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>302</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="G14" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="E2:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="26" customFormat="1">
+      <c r="A1" s="26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="30">
+      <c r="A2" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="4" spans="1:14" ht="105">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="60">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" s="19" customFormat="1">
+      <c r="A3" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="33">
+        <v>55</v>
+      </c>
+      <c r="B4" s="33">
+        <v>501</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:7" ht="105">
+      <c r="A9">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>502</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="D10" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="E4:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" s="19" customFormat="1">
+      <c r="A3" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="90">
+      <c r="A5">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>401</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75">
+      <c r="A7">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>402</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="26" customFormat="1">
+      <c r="A1" s="26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="19" customFormat="1">
+      <c r="A2" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="90">
+      <c r="A4">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2">
+        <v>701</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="75">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>702</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" s="21" customFormat="1">
+      <c r="A2" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A5:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" s="21" customFormat="1">
+      <c r="A2" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60">
+      <c r="B4" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="46.5" customHeight="1">
+      <c r="B5" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45">
+      <c r="B6" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60">
+      <c r="B7" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60">
+      <c r="B8" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" s="21" customFormat="1">
+      <c r="A2" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60">
+      <c r="B3" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60">
+      <c r="B4" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="47.25" customHeight="1">
+      <c r="B5" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60">
+      <c r="B6" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45">
+      <c r="B7" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="42" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" s="21" customFormat="1">
+      <c r="A2" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="34" customFormat="1" ht="26.25" customHeight="1">
+      <c r="B3" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45">
+      <c r="B4" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45">
+      <c r="B5" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60">
+      <c r="B6" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30">
+      <c r="B7" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34.5" customHeight="1">
+      <c r="B8" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45">
+      <c r="B9" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45">
+      <c r="B10" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45">
+      <c r="B11" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45">
+      <c r="B12" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1215,15 +2904,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="12" t="s">
@@ -1562,14 +3251,14 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9">
@@ -1638,14 +3327,14 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="15" spans="1:6" ht="30">
       <c r="A15" s="9">
@@ -1659,14 +3348,14 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="30">
       <c r="A18" s="9">
@@ -1710,7 +3399,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D1" sqref="D1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1726,15 +3415,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="12" t="s">
@@ -1948,7 +3637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1960,13 +3649,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="7" t="s">
@@ -2035,16 +3724,16 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6" ht="30">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>101</v>
       </c>
@@ -2059,13 +3748,13 @@
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="1:6" ht="30">
       <c r="A18">
@@ -2116,14 +3805,14 @@
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:6" ht="30">
       <c r="A24">
@@ -2168,8 +3857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2185,21 +3874,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13" ht="30">
       <c r="A2" s="12" t="s">
@@ -2594,12 +4283,531 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="A2:XFD2 A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="E9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="30">
+      <c r="A8" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="75">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="105">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:H7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assignment module2.xlsx
+++ b/assignment module2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="15315" windowHeight="7485" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="15315" windowHeight="7485" firstSheet="19" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Hlr for instagram" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,17 @@
     <sheet name="Test Scenario for gmail msg R" sheetId="15" r:id="rId15"/>
     <sheet name="Flipcart" sheetId="16" r:id="rId16"/>
     <sheet name="Nokia8sicocco on flipcart" sheetId="17" r:id="rId17"/>
-    <sheet name="Wrist watch" sheetId="18" r:id="rId18"/>
+    <sheet name="wristwatch scenario" sheetId="18" r:id="rId18"/>
+    <sheet name="scenario whatsuppgenerate group" sheetId="20" r:id="rId19"/>
+    <sheet name="scenariowhtaspp payment" sheetId="21" r:id="rId20"/>
+    <sheet name="scenario for lift" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="387">
   <si>
     <t>Funcionality Id</t>
   </si>
@@ -936,96 +939,269 @@
     <t>verify that confirmation email/SMS is not received or tracking info is missing</t>
   </si>
   <si>
-    <t>Verify that the wristwatch displays</t>
-  </si>
-  <si>
-    <t>Verify that the wristwatch displays the correct time as per the set time zone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Check what happens if the battery is completely drained; ensure the watch can be restarted properly.
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Check wristwatch time display</t>
+  </si>
+  <si>
+    <t>When the user looks at the wristwatch, it should display the current time accurately.</t>
+  </si>
+  <si>
+    <t>The wristwatch should show the correct time with no more than ±1 minute difference from standard time.</t>
+  </si>
+  <si>
+    <t>Check a wrist watch alarm function</t>
+  </si>
+  <si>
+    <t>The user should be able to set an alarm on the wristwatch.</t>
+  </si>
+  <si>
+    <t>1)wear the wrist watch. 2)set the current time if needed 3)wait for few minutes. 4) compare the watch time with your mobile or computer.</t>
+  </si>
+  <si>
+    <t>1)Press the mode button to enter alarm mode.2)she desired set time for alarm3)waituntil the alarm time is reached</t>
+  </si>
+  <si>
+    <t>The wristwatch should emit a sound or vibration at the set time.</t>
+  </si>
+  <si>
+    <t>Check wristwatch stopwatch function</t>
+  </si>
+  <si>
+    <t>The stopwatch feature should start, stop, and reset correctly.</t>
+  </si>
+  <si>
+    <t>1. Stopwatch should count time accurately, stop when prompted, and reset to 00:00:00.</t>
+  </si>
+  <si>
+    <t>1)submerged the watch in water within specifieddepth2)keep it submerged for 30 minutes 3)remove  and check functionality</t>
+  </si>
+  <si>
+    <t>Check wristwatch battery indicator (if digital)</t>
+  </si>
+  <si>
+    <t>The watch should notify the user when battery is low.</t>
+  </si>
+  <si>
+    <t>1. A low battery indicator (blinking symbol or message) should appear on the display.</t>
+  </si>
+  <si>
+    <t>1)Monitor the watch as the battery gets low.</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to successfully create a WhatsApp group and add participants.</t>
+  </si>
+  <si>
+    <t>User must be logged into WhatsApp with an active internet connection.</t>
+  </si>
+  <si>
+    <t>1)Open WhatsApp application.</t>
+  </si>
+  <si>
+    <t>user can open whatsupp successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As  per expected result </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openwhatsupp app only </t>
+  </si>
+  <si>
+    <t>Tap on Three dots option</t>
+  </si>
+  <si>
+    <t>After click onThree dots menu is open successfully select the new group option</t>
+  </si>
+  <si>
+    <t>1)Open WhatsApp application. 2) Tap on three dots menu select new group option</t>
+  </si>
+  <si>
+    <t>user can select option new whatsupp group successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on Select contacts to add as group members.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that the time formats </t>
-  </si>
-  <si>
-    <t>Verify that the wristwatch supports multiple time formats (12-hour and 24-hour format).</t>
-  </si>
-  <si>
-    <t>Verify that the wrist sizes.</t>
-  </si>
-  <si>
-    <t>Verify thatwater-resistant up</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify that the watch’s strap is adjustable and comfortable for different wrist sizes.</t>
-  </si>
-  <si>
-    <t>Verify that the watch is water-resistant up to the specified depth.</t>
-  </si>
-  <si>
-    <t>Verify that the alarm function rings at the set time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify that the battery life is consistent with the manufacturer’s specifications.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify that the smartwatch connects properly to the companion mobile application.</t>
-  </si>
-  <si>
-    <t>Verify that the wristwatch’s stopwatch function measures time accurately.</t>
-  </si>
-  <si>
-    <t>Verify that the watch’s luminous display or backlight is visible in the dark.</t>
-  </si>
-  <si>
-    <t>Verify that the material of the watch is durable and does not cause skin irritation.</t>
-  </si>
-  <si>
-    <t>1. Verify the watch's response if water resistance is exceeded (e.g., submerged beyond its rated depth).</t>
-  </si>
-  <si>
-    <t>1. Verify if the watch stops working when exposed to extreme temperatures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the reaction if the watch is dropped from a certain height.
-</t>
-  </si>
-  <si>
-    <t>1. Verify what happens if multiple alarms are set for the same time.</t>
-  </si>
-  <si>
-    <t>Verify if the strap mechanism fails or breaks under excessive pressure.</t>
-  </si>
-  <si>
-    <t>1. Check if incorrect time zone settings cause synchronization issues.</t>
-  </si>
-  <si>
-    <t>Verify if the digital display flickers or fails when the battery is low.</t>
-  </si>
-  <si>
-    <t>Test whether the watch continues to function properly if exposed to high magnetic fields.</t>
-  </si>
-  <si>
-    <t>Verify if the smartwatch disconnects unexpectedly from the mobile application.</t>
-  </si>
-  <si>
-    <t>Verify that the alarm function</t>
-  </si>
-  <si>
-    <t>Verify that the battery</t>
-  </si>
-  <si>
-    <t>Verify that the smartwatch connects</t>
-  </si>
-  <si>
-    <t>Verify that the wristwatch’s stopwatch function</t>
-  </si>
-  <si>
-    <t>Verify that the watch’s luminous display</t>
-  </si>
-  <si>
-    <t>Verify that the material of the watch</t>
+    <t xml:space="preserve">After click on select contacts and  add contacts menu is open successfully </t>
+  </si>
+  <si>
+    <t>user  can add and select members successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on Arrow icon </t>
+  </si>
+  <si>
+    <t>After click on Arrowicon to get the further procedure</t>
+  </si>
+  <si>
+    <t>1)Open WhatsApp application. 2) Tap on three dots menu select new group option3) click on add and selcet mebers button</t>
+  </si>
+  <si>
+    <t>1)Open WhatsApp application. 2) Tap on three dots menu select new group option3) click on add and selcet mebers button4)click on Arrow icon</t>
+  </si>
+  <si>
+    <t>user can proceed successfully for furtherprocess</t>
+  </si>
+  <si>
+    <t>Click on enter a group name and optionally add a group icon.</t>
+  </si>
+  <si>
+    <t>After click on group name setand icon also set</t>
+  </si>
+  <si>
+    <t>1)Open WhatsApp application. 2) Tap on three dots menu select new group option3) click on add and selcet mebers button4)click on Arrow icon 5)Click on group name and icon</t>
+  </si>
+  <si>
+    <t>user can set the group name and ion successfully</t>
+  </si>
+  <si>
+    <t>Tap the checkmark to create the group.</t>
+  </si>
+  <si>
+    <t>1)Open WhatsApp application. 2) Tap on three dots menu select new group option3) click on add and selcet mebers button4)click on Arrow icon 5)Click on group name and icon 6) clickon checkmarkoption</t>
+  </si>
+  <si>
+    <t>The group should appear in the chat list of all member</t>
+  </si>
+  <si>
+    <t>After click on checkmark option group created successfully</t>
+  </si>
+  <si>
+    <t>Check lift button press</t>
+  </si>
+  <si>
+    <t>Check lift door operation</t>
+  </si>
+  <si>
+    <t>Check floor selection</t>
+  </si>
+  <si>
+    <t>Check lift overload</t>
+  </si>
+  <si>
+    <t>Check emergency button</t>
+  </si>
+  <si>
+    <t>Validate emergency button functionality.</t>
+  </si>
+  <si>
+    <t>Ensure lift displays warning when overloaded.</t>
+  </si>
+  <si>
+    <t>Verify floor buttons inside the lift work properly.</t>
+  </si>
+  <si>
+    <t>Ensure doors open when lift reaches floor.</t>
+  </si>
+  <si>
+    <t>Validate that pressing the lift call button summons the lift.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Navigate to lift lobby 2)pres the up and down button 3)observe the lift it arrivals in the reasonable time </t>
+  </si>
+  <si>
+    <t>1)call  the lift 2)if it arrives observe that doors open automatically.</t>
+  </si>
+  <si>
+    <t>1)Enter the lift 2) press the button of floor no 3 3) check the lift moves and stop at floor 3</t>
+  </si>
+  <si>
+    <t>1)try to enter the lift with loaded capacity 2)  check for overloder alaram or indicator</t>
+  </si>
+  <si>
+    <t>1)enter in lift plz press emergency button if needed2)Confirm it triggers an alert or connects to emergency assistance</t>
+  </si>
+  <si>
+    <t>lift is arrived</t>
+  </si>
+  <si>
+    <t>doors open automatically</t>
+  </si>
+  <si>
+    <t>we reached succcessfully at floor 3</t>
+  </si>
+  <si>
+    <t>check warnings on overloading</t>
+  </si>
+  <si>
+    <t>emergency buttton work properly</t>
+  </si>
+  <si>
+    <t>Check payment gateway</t>
+  </si>
+  <si>
+    <t>Successful payment</t>
+  </si>
+  <si>
+    <t>Failed payment</t>
+  </si>
+  <si>
+    <t>Cancel payment option</t>
+  </si>
+  <si>
+    <t>Payment history check</t>
+  </si>
+  <si>
+    <t>Ensure that the successful payment is recorded in the user’s payment history.</t>
+  </si>
+  <si>
+    <t>Validate cancel button during payment process.</t>
+  </si>
+  <si>
+    <t>Check system behavior on invalid card payment.</t>
+  </si>
+  <si>
+    <t>Validate successful payment transaction with valid card.</t>
+  </si>
+  <si>
+    <t>Verify that the payment gateway is opening properly.</t>
+  </si>
+  <si>
+    <t>1)Login to the website2)Add item to cart 3)Click "Proceed to Payment" 4)Observe if payment gateway opens</t>
+  </si>
+  <si>
+    <t>1)Go to payment page 2)Enter valid card details 3)Click "Pay" 4)Observe success message</t>
+  </si>
+  <si>
+    <t>1)Go to payment page 2)Enter invalid card details 3)Click "Pay" 4)Observe error message</t>
+  </si>
+  <si>
+    <t>1)Go to payment gateway 2)Click "Cancel" button3)Observe if user returns to cart or previous page</t>
+  </si>
+  <si>
+    <t>1) Login to user account 2)Navigate to "Payment History" 3)Verify the recent successful transaction</t>
+  </si>
+  <si>
+    <t>Recent transaction</t>
+  </si>
+  <si>
+    <t>Any order</t>
+  </si>
+  <si>
+    <t>Invalid card info</t>
+  </si>
+  <si>
+    <t>valid card info</t>
+  </si>
+  <si>
+    <t>Valid product &amp; user</t>
+  </si>
+  <si>
+    <t>payment gateway open successfully</t>
+  </si>
+  <si>
+    <t>valid successfully transaction done</t>
+  </si>
+  <si>
+    <t>invalid transaction</t>
+  </si>
+  <si>
+    <t>cancel the paymenyt successfully</t>
+  </si>
+  <si>
+    <t>check history createt successfully</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1334,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1203,10 +1379,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1242,13 +1430,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1559,16 +1740,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -1582,16 +1763,16 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
@@ -1660,13 +1841,13 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
@@ -1680,14 +1861,14 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
@@ -1701,13 +1882,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
@@ -1818,64 +1999,64 @@
       <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1">
-      <c r="A2" s="33">
+      <c r="A2" s="37">
         <v>50</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="37">
         <v>300</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="6" spans="1:14" ht="75" customHeight="1">
       <c r="A6">
@@ -1902,22 +2083,22 @@
       <c r="E7" s="2"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="G9" s="33"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="G10" s="33"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="G11" s="33"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="G12" s="33"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="G13" s="33"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="G14" s="33"/>
+      <c r="G14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1959,8 +2140,8 @@
     <col min="7" max="7" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="26" customFormat="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:14" s="30" customFormat="1">
+      <c r="A1" s="30" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2047,7 +2228,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2060,22 +2241,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" s="19" customFormat="1">
       <c r="A3" s="18" t="s">
@@ -2101,63 +2282,63 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="33">
+      <c r="A4" s="37">
         <v>55</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="37">
         <v>501</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="37" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="105">
       <c r="A9">
@@ -2219,15 +2400,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" s="19" customFormat="1">
       <c r="A3" s="18" t="s">
@@ -2311,7 +2492,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2325,8 +2506,8 @@
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="26" customFormat="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" s="30" customFormat="1">
+      <c r="A1" s="30" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2429,21 +2610,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" spans="1:4" s="21" customFormat="1">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:4" s="20" customFormat="1">
+      <c r="A2" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -2545,18 +2726,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" spans="1:4" s="21" customFormat="1">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:4" s="20" customFormat="1">
+      <c r="A2" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>249</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -2634,7 +2815,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2646,21 +2827,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" spans="1:4" s="21" customFormat="1">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:4" s="20" customFormat="1">
+      <c r="A2" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>251</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -2740,147 +2921,349 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D12"/>
+  <dimension ref="A2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="42" style="20" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="21" customFormat="1">
-      <c r="A2" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="34" customFormat="1" ht="26.25" customHeight="1">
-      <c r="B3" s="35" t="s">
+    <row r="2" spans="1:8" s="19" customFormat="1" ht="30">
+      <c r="A2" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="H2" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="105">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="21" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="45">
-      <c r="B4" s="20" t="s">
+      <c r="E3" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="H3" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="75">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="90">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="90">
+      <c r="C6" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="45">
-      <c r="B5" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60">
-      <c r="B6" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30">
-      <c r="B7" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34.5" customHeight="1">
-      <c r="B8" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45">
-      <c r="B9" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45">
-      <c r="B10" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45">
-      <c r="B11" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45">
-      <c r="B12" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>322</v>
+      <c r="H6" s="21" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="18.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="30">
+      <c r="A2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="75">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="75">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="105">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="120">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="135">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="165">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2888,8 +3271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2904,15 +3287,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="12" t="s">
@@ -3214,6 +3597,322 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="9" style="22" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" s="19" customFormat="1" ht="30">
+      <c r="A2" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="120">
+      <c r="C4" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="90">
+      <c r="C5" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="90">
+      <c r="C6" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="105">
+      <c r="C7" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="120">
+      <c r="C8" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" s="19" customFormat="1" ht="30">
+      <c r="A2" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="105">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4">
+        <v>501</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60">
+      <c r="A5">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>502</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="90">
+      <c r="A6">
+        <v>104</v>
+      </c>
+      <c r="B6">
+        <v>503</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="90">
+      <c r="A7">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>504</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="120">
+      <c r="A8">
+        <v>106</v>
+      </c>
+      <c r="B8">
+        <v>505</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3251,14 +3950,14 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9">
@@ -3327,14 +4026,14 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="15" spans="1:6" ht="30">
       <c r="A15" s="9">
@@ -3348,14 +4047,14 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="18" spans="1:3" ht="30">
       <c r="A18" s="9">
@@ -3399,7 +4098,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:J1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3415,15 +4114,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="12" t="s">
@@ -3649,13 +4348,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="7" t="s">
@@ -3724,14 +4423,14 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
@@ -3748,13 +4447,13 @@
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="1:6" ht="30">
       <c r="A18">
@@ -3805,14 +4504,14 @@
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" ht="30">
       <c r="A24">
@@ -3874,21 +4573,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="30">
       <c r="A2" s="12" t="s">
@@ -4286,7 +4985,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4299,15 +4998,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="15" t="s">
@@ -4465,15 +5164,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="15" t="s">
@@ -4628,77 +5327,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" ht="30">
       <c r="A8" s="15" t="s">
